--- a/balance-java/db/数据库设计(SYS_系统管理).xlsx
+++ b/balance-java/db/数据库设计(SYS_系统管理).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6D7363-FD15-DF41-8D9B-1BA1FCAF1D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="661" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18840" tabRatio="661" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修订记录" sheetId="17" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="335">
   <si>
     <t>中文表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1235,11 +1236,16 @@
     <t>0-默认 1立即执行 2执行一次 3放弃执行</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>是否
+模糊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11">
     <font>
       <sz val="11"/>
@@ -1305,12 +1311,14 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1343,7 +1351,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1522,9 +1530,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="_ET_STYLE_NoName_00_" xfId="1"/>
+    <cellStyle name="_ET_STYLE_NoName_00_" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1541,7 +1555,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1583,7 +1597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1615,9 +1629,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1649,6 +1681,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1824,24 +1874,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.5" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15">
       <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
@@ -1886,29 +1936,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M249"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:N249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A240" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K235" sqref="K235:K248"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="36.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.375" style="2"/>
+    <col min="11" max="11" width="5" style="61" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.33203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="24">
+    <row r="1" spans="1:14" ht="30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1939,17 +1992,20 @@
       <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14" ht="15">
       <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
@@ -1977,11 +2033,14 @@
       <c r="J2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="K2" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="62" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3" s="2" t="s">
         <v>118</v>
       </c>
@@ -2009,9 +2068,12 @@
       <c r="J3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="61"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="K3" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="62"/>
+    </row>
+    <row r="4" spans="1:14" ht="15">
       <c r="B4" s="2">
         <v>3</v>
       </c>
@@ -2036,9 +2098,12 @@
       <c r="J4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="61"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="K4" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="62"/>
+    </row>
+    <row r="5" spans="1:14" ht="15">
       <c r="B5" s="2">
         <v>4</v>
       </c>
@@ -2063,9 +2128,12 @@
       <c r="J5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="61"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="K5" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N5" s="62"/>
+    </row>
+    <row r="6" spans="1:14" ht="15">
       <c r="B6" s="2">
         <v>5</v>
       </c>
@@ -2090,9 +2158,12 @@
       <c r="J6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="61"/>
-    </row>
-    <row r="7" spans="1:13" s="42" customFormat="1">
+      <c r="K6" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N6" s="62"/>
+    </row>
+    <row r="7" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B7" s="42">
         <v>6</v>
       </c>
@@ -2117,9 +2188,12 @@
       <c r="J7" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" s="42" customFormat="1">
+      <c r="K7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B8" s="42">
         <v>7</v>
       </c>
@@ -2141,9 +2215,12 @@
       <c r="J8" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" s="42" customFormat="1">
+      <c r="K8" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B9" s="42">
         <v>8</v>
       </c>
@@ -2165,9 +2242,12 @@
       <c r="J9" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" s="42" customFormat="1">
+      <c r="K9" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B10" s="42">
         <v>9</v>
       </c>
@@ -2192,9 +2272,12 @@
       <c r="J10" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" s="42" customFormat="1">
+      <c r="K10" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B11" s="42">
         <v>10</v>
       </c>
@@ -2216,9 +2299,12 @@
       <c r="J11" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" s="42" customFormat="1">
+      <c r="K11" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B12" s="42">
         <v>11</v>
       </c>
@@ -2240,9 +2326,12 @@
       <c r="J12" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" ht="24">
+      <c r="K12" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="30">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -2273,17 +2362,20 @@
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14" ht="15">
       <c r="A14" s="2" t="s">
         <v>140</v>
       </c>
@@ -2311,11 +2403,14 @@
       <c r="J14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="K14" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="62" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14" ht="15">
       <c r="A15" s="2" t="s">
         <v>119</v>
       </c>
@@ -2343,9 +2438,12 @@
       <c r="J15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="61"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="K15" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="62"/>
+    </row>
+    <row r="16" spans="1:14" ht="15">
       <c r="B16" s="42">
         <v>3</v>
       </c>
@@ -2370,9 +2468,12 @@
       <c r="J16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="61"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="K16" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="62"/>
+    </row>
+    <row r="17" spans="1:14" ht="15">
       <c r="B17" s="42">
         <v>4</v>
       </c>
@@ -2397,9 +2498,12 @@
       <c r="J17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="61"/>
-    </row>
-    <row r="18" spans="1:13" s="42" customFormat="1">
+      <c r="K17" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17" s="62"/>
+    </row>
+    <row r="18" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B18" s="42">
         <v>5</v>
       </c>
@@ -2424,9 +2528,12 @@
       <c r="J18" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" s="42" customFormat="1">
+      <c r="K18" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B19" s="42">
         <v>6</v>
       </c>
@@ -2448,9 +2555,12 @@
       <c r="J19" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" s="42" customFormat="1">
+      <c r="K19" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B20" s="42">
         <v>7</v>
       </c>
@@ -2472,9 +2582,12 @@
       <c r="J20" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" s="42" customFormat="1">
+      <c r="K20" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B21" s="42">
         <v>8</v>
       </c>
@@ -2499,9 +2612,12 @@
       <c r="J21" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" s="42" customFormat="1">
+      <c r="K21" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B22" s="42">
         <v>9</v>
       </c>
@@ -2523,9 +2639,12 @@
       <c r="J22" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" s="42" customFormat="1">
+      <c r="K22" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B23" s="42">
         <v>10</v>
       </c>
@@ -2547,9 +2666,12 @@
       <c r="J23" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" ht="24">
+      <c r="K23" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="30">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -2580,17 +2702,20 @@
       <c r="J24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:14" ht="15">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
@@ -2618,11 +2743,14 @@
       <c r="J25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="61" t="s">
+      <c r="K25" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="62" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:14" ht="15">
       <c r="A26" s="3" t="s">
         <v>120</v>
       </c>
@@ -2650,10 +2778,13 @@
       <c r="J26" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="L26" s="40"/>
-      <c r="M26" s="61"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="K26" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M26" s="40"/>
+      <c r="N26" s="62"/>
+    </row>
+    <row r="27" spans="1:14" ht="15">
       <c r="B27" s="3">
         <v>3</v>
       </c>
@@ -2678,10 +2809,13 @@
       <c r="J27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L27" s="40"/>
-      <c r="M27" s="61"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="K27" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M27" s="40"/>
+      <c r="N27" s="62"/>
+    </row>
+    <row r="28" spans="1:14" ht="15">
       <c r="B28" s="3">
         <v>4</v>
       </c>
@@ -2706,9 +2840,12 @@
       <c r="J28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="61"/>
-    </row>
-    <row r="29" spans="1:13" s="7" customFormat="1">
+      <c r="K28" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" s="62"/>
+    </row>
+    <row r="29" spans="1:14" s="7" customFormat="1" ht="15">
       <c r="B29" s="3">
         <v>5</v>
       </c>
@@ -2733,9 +2870,12 @@
       <c r="J29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="61"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="K29" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29" s="62"/>
+    </row>
+    <row r="30" spans="1:14" ht="15">
       <c r="B30" s="3">
         <v>6</v>
       </c>
@@ -2760,9 +2900,12 @@
       <c r="J30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="61"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="K30" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" s="62"/>
+    </row>
+    <row r="31" spans="1:14" ht="15">
       <c r="B31" s="3">
         <v>7</v>
       </c>
@@ -2787,9 +2930,12 @@
       <c r="J31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="61"/>
-    </row>
-    <row r="32" spans="1:13" s="28" customFormat="1">
+      <c r="K31" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="N31" s="62"/>
+    </row>
+    <row r="32" spans="1:14" s="28" customFormat="1" ht="15">
       <c r="B32" s="3">
         <v>8</v>
       </c>
@@ -2814,14 +2960,17 @@
       <c r="J32" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="42" customFormat="1">
+    <row r="33" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B33" s="3">
         <v>9</v>
       </c>
@@ -2846,9 +2995,12 @@
       <c r="J33" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="1:13" s="42" customFormat="1">
+      <c r="K33" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B34" s="3">
         <v>10</v>
       </c>
@@ -2870,9 +3022,12 @@
       <c r="J34" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="1:13" s="42" customFormat="1">
+      <c r="K34" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B35" s="3">
         <v>11</v>
       </c>
@@ -2894,9 +3049,12 @@
       <c r="J35" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:13" s="42" customFormat="1">
+      <c r="K35" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="36" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B36" s="3">
         <v>12</v>
       </c>
@@ -2921,9 +3079,12 @@
       <c r="J36" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:13" s="42" customFormat="1">
+      <c r="K36" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36" s="3"/>
+    </row>
+    <row r="37" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B37" s="3">
         <v>13</v>
       </c>
@@ -2945,9 +3106,12 @@
       <c r="J37" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" s="42" customFormat="1">
+      <c r="K37" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M37" s="3"/>
+    </row>
+    <row r="38" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B38" s="3">
         <v>14</v>
       </c>
@@ -2969,9 +3133,12 @@
       <c r="J38" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="1:13" ht="24">
+      <c r="K38" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="1:14" ht="30">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -3002,17 +3169,20 @@
       <c r="J39" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="N39" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:14" ht="15">
       <c r="A40" s="3" t="s">
         <v>112</v>
       </c>
@@ -3040,11 +3210,14 @@
       <c r="J40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="K40" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:14" ht="15">
       <c r="A41" s="3" t="s">
         <v>121</v>
       </c>
@@ -3072,9 +3245,12 @@
       <c r="J41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="K41" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="1:14" ht="15">
       <c r="B42" s="3">
         <v>3</v>
       </c>
@@ -3099,9 +3275,12 @@
       <c r="J42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="K42" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="1:14" ht="15">
       <c r="B43" s="3">
         <v>4</v>
       </c>
@@ -3126,8 +3305,11 @@
       <c r="J43" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="K43" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15">
       <c r="B44" s="3">
         <v>5</v>
       </c>
@@ -3152,9 +3334,12 @@
       <c r="J44" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="K44" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:14" ht="15">
       <c r="B45" s="3">
         <v>6</v>
       </c>
@@ -3179,10 +3364,13 @@
       <c r="J45" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K45" s="18"/>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="1:13" s="24" customFormat="1">
+      <c r="K45" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="18"/>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" s="24" customFormat="1" ht="15">
       <c r="B46" s="3">
         <v>7</v>
       </c>
@@ -3207,9 +3395,12 @@
       <c r="J46" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="K46" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" ht="15">
       <c r="B47" s="3">
         <v>8</v>
       </c>
@@ -3234,9 +3425,12 @@
       <c r="J47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="K47" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="15">
       <c r="B48" s="3">
         <v>9</v>
       </c>
@@ -3261,8 +3455,11 @@
       <c r="J48" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" s="33" customFormat="1">
+      <c r="K48" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" s="33" customFormat="1" ht="15">
       <c r="B49" s="3">
         <v>10</v>
       </c>
@@ -3287,9 +3484,12 @@
       <c r="J49" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" s="33" customFormat="1">
+      <c r="K49" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:14" s="33" customFormat="1" ht="15">
       <c r="B50" s="3">
         <v>11</v>
       </c>
@@ -3314,8 +3514,11 @@
       <c r="J50" s="33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" s="37" customFormat="1">
+      <c r="K50" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" s="37" customFormat="1" ht="15">
       <c r="B51" s="3">
         <v>12</v>
       </c>
@@ -3340,9 +3543,12 @@
       <c r="J51" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" s="37" customFormat="1">
+      <c r="K51" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="1:14" s="37" customFormat="1" ht="15">
       <c r="B52" s="3">
         <v>13</v>
       </c>
@@ -3367,9 +3573,12 @@
       <c r="J52" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" s="33" customFormat="1">
+      <c r="K52" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" s="33" customFormat="1" ht="15">
       <c r="B53" s="3">
         <v>14</v>
       </c>
@@ -3394,8 +3603,11 @@
       <c r="J53" s="33" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" s="33" customFormat="1">
+      <c r="K53" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="33" customFormat="1" ht="15">
       <c r="B54" s="3">
         <v>15</v>
       </c>
@@ -3420,9 +3632,12 @@
       <c r="J54" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" s="42" customFormat="1">
+      <c r="K54" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B55" s="3">
         <v>16</v>
       </c>
@@ -3447,9 +3662,12 @@
       <c r="J55" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" s="42" customFormat="1">
+      <c r="K55" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B56" s="3">
         <v>17</v>
       </c>
@@ -3471,9 +3689,12 @@
       <c r="J56" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="1:13" s="42" customFormat="1">
+      <c r="K56" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B57" s="3">
         <v>18</v>
       </c>
@@ -3495,9 +3716,12 @@
       <c r="J57" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="1:13" s="42" customFormat="1">
+      <c r="K57" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B58" s="3">
         <v>19</v>
       </c>
@@ -3522,9 +3746,12 @@
       <c r="J58" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" s="42" customFormat="1">
+      <c r="K58" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B59" s="3">
         <v>20</v>
       </c>
@@ -3546,9 +3773,12 @@
       <c r="J59" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" s="42" customFormat="1">
+      <c r="K59" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B60" s="3">
         <v>21</v>
       </c>
@@ -3570,9 +3800,12 @@
       <c r="J60" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" ht="24">
+      <c r="K60" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" ht="30">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -3603,17 +3836,20 @@
       <c r="J61" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="K61" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L61" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="N61" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:14" ht="15">
       <c r="A62" s="3" t="s">
         <v>48</v>
       </c>
@@ -3641,11 +3877,14 @@
       <c r="J62" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="K62" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M62" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:14" ht="15">
       <c r="A63" s="3" t="s">
         <v>122</v>
       </c>
@@ -3673,8 +3912,11 @@
       <c r="J63" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" s="32" customFormat="1">
+      <c r="K63" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" s="32" customFormat="1" ht="15">
       <c r="B64" s="3">
         <v>3</v>
       </c>
@@ -3699,8 +3941,11 @@
       <c r="J64" s="32" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="K64" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15">
       <c r="B65" s="3">
         <v>4</v>
       </c>
@@ -3725,8 +3970,11 @@
       <c r="J65" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" s="12" customFormat="1">
+      <c r="K65" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" s="12" customFormat="1" ht="15">
       <c r="B66" s="3">
         <v>5</v>
       </c>
@@ -3751,8 +3999,11 @@
       <c r="J66" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" s="29" customFormat="1">
+      <c r="K66" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="29" customFormat="1" ht="15">
       <c r="B67" s="3">
         <v>6</v>
       </c>
@@ -3777,8 +4028,11 @@
       <c r="J67" s="29" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" s="42" customFormat="1">
+      <c r="K67" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B68" s="3">
         <v>7</v>
       </c>
@@ -3803,9 +4057,12 @@
       <c r="J68" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="1:13" s="42" customFormat="1">
+      <c r="K68" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B69" s="3">
         <v>8</v>
       </c>
@@ -3827,9 +4084,12 @@
       <c r="J69" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="1:13" s="42" customFormat="1">
+      <c r="K69" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B70" s="3">
         <v>9</v>
       </c>
@@ -3851,9 +4111,12 @@
       <c r="J70" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="1:13" s="42" customFormat="1">
+      <c r="K70" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B71" s="3">
         <v>10</v>
       </c>
@@ -3878,9 +4141,12 @@
       <c r="J71" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="1:13" s="42" customFormat="1">
+      <c r="K71" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B72" s="3">
         <v>11</v>
       </c>
@@ -3902,9 +4168,12 @@
       <c r="J72" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="1:13" s="42" customFormat="1">
+      <c r="K72" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B73" s="3">
         <v>12</v>
       </c>
@@ -3926,9 +4195,12 @@
       <c r="J73" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" ht="24">
+      <c r="K73" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="1:14" ht="30">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -3959,17 +4231,20 @@
       <c r="J74" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K74" s="1" t="s">
+      <c r="K74" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L74" s="1" t="s">
+      <c r="M74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M74" s="1" t="s">
+      <c r="N74" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:14" ht="15">
       <c r="A75" s="3" t="s">
         <v>150</v>
       </c>
@@ -3997,11 +4272,14 @@
       <c r="J75" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="K75" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M75" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:14" ht="15">
       <c r="A76" s="3" t="s">
         <v>123</v>
       </c>
@@ -4029,9 +4307,12 @@
       <c r="J76" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="K76" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="1:14" ht="15">
       <c r="B77" s="3">
         <v>3</v>
       </c>
@@ -4056,9 +4337,12 @@
       <c r="J77" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" s="13" customFormat="1">
+      <c r="K77" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="78" spans="1:14" s="13" customFormat="1" ht="15">
       <c r="A78" s="3"/>
       <c r="B78" s="3">
         <v>4</v>
@@ -4084,9 +4368,12 @@
       <c r="J78" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="L78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" s="13" customFormat="1">
+      <c r="K78" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M78" s="3"/>
+    </row>
+    <row r="79" spans="1:14" s="13" customFormat="1" ht="15">
       <c r="B79" s="3">
         <v>5</v>
       </c>
@@ -4111,10 +4398,13 @@
       <c r="J79" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="K79" s="19"/>
-      <c r="L79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" s="17" customFormat="1">
+      <c r="K79" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L79" s="19"/>
+      <c r="M79" s="3"/>
+    </row>
+    <row r="80" spans="1:14" s="17" customFormat="1" ht="15">
       <c r="B80" s="3">
         <v>6</v>
       </c>
@@ -4139,11 +4429,14 @@
       <c r="J80" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="K80" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M80" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:14" ht="15">
       <c r="B81" s="3">
         <v>7</v>
       </c>
@@ -4168,10 +4461,13 @@
       <c r="J81" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L81" s="3"/>
-      <c r="M81" s="14"/>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="K81" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M81" s="3"/>
+      <c r="N81" s="14"/>
+    </row>
+    <row r="82" spans="1:14" ht="15">
       <c r="B82" s="3">
         <v>8</v>
       </c>
@@ -4196,9 +4492,12 @@
       <c r="J82" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="1:13" s="27" customFormat="1">
+      <c r="K82" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="1:14" s="27" customFormat="1" ht="15">
       <c r="B83" s="3">
         <v>9</v>
       </c>
@@ -4223,14 +4522,17 @@
       <c r="J83" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="K83" s="27" t="s">
+      <c r="K83" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L83" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="1:13" s="42" customFormat="1">
+    <row r="84" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B84" s="3">
         <v>10</v>
       </c>
@@ -4255,9 +4557,12 @@
       <c r="J84" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" s="42" customFormat="1">
+      <c r="K84" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B85" s="3">
         <v>11</v>
       </c>
@@ -4279,9 +4584,12 @@
       <c r="J85" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" s="42" customFormat="1">
+      <c r="K85" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B86" s="3">
         <v>12</v>
       </c>
@@ -4303,9 +4611,12 @@
       <c r="J86" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" s="42" customFormat="1">
+      <c r="K86" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B87" s="3">
         <v>13</v>
       </c>
@@ -4330,9 +4641,12 @@
       <c r="J87" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" s="42" customFormat="1">
+      <c r="K87" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B88" s="3">
         <v>14</v>
       </c>
@@ -4354,9 +4668,12 @@
       <c r="J88" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" s="42" customFormat="1">
+      <c r="K88" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B89" s="3">
         <v>15</v>
       </c>
@@ -4378,9 +4695,12 @@
       <c r="J89" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" ht="24">
+      <c r="K89" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="1:14" ht="30">
       <c r="A90" s="1" t="s">
         <v>0</v>
       </c>
@@ -4411,17 +4731,20 @@
       <c r="J90" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K90" s="1" t="s">
+      <c r="K90" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L90" s="1" t="s">
+      <c r="M90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M90" s="1" t="s">
+      <c r="N90" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:14" ht="15">
       <c r="A91" s="3" t="s">
         <v>160</v>
       </c>
@@ -4449,8 +4772,11 @@
       <c r="J91" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="K91" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15">
       <c r="A92" s="3" t="s">
         <v>124</v>
       </c>
@@ -4478,8 +4804,11 @@
       <c r="J92" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="K92" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15">
       <c r="B93" s="3">
         <v>3</v>
       </c>
@@ -4504,8 +4833,11 @@
       <c r="J93" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="K93" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15">
       <c r="B94" s="3">
         <v>4</v>
       </c>
@@ -4530,8 +4862,11 @@
       <c r="J94" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" s="42" customFormat="1">
+      <c r="K94" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B95" s="3">
         <v>5</v>
       </c>
@@ -4556,9 +4891,12 @@
       <c r="J95" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="1:13" s="42" customFormat="1">
+      <c r="K95" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B96" s="3">
         <v>6</v>
       </c>
@@ -4580,9 +4918,12 @@
       <c r="J96" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" s="42" customFormat="1">
+      <c r="K96" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B97" s="3">
         <v>7</v>
       </c>
@@ -4604,9 +4945,12 @@
       <c r="J97" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" s="42" customFormat="1">
+      <c r="K97" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B98" s="3">
         <v>8</v>
       </c>
@@ -4631,9 +4975,12 @@
       <c r="J98" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" s="42" customFormat="1">
+      <c r="K98" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B99" s="3">
         <v>9</v>
       </c>
@@ -4655,9 +5002,12 @@
       <c r="J99" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" s="42" customFormat="1">
+      <c r="K99" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B100" s="3">
         <v>10</v>
       </c>
@@ -4679,9 +5029,12 @@
       <c r="J100" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="1:13" ht="24">
+      <c r="K100" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="1:14" ht="30">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -4712,17 +5065,20 @@
       <c r="J101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K101" s="1" t="s">
+      <c r="K101" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L101" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L101" s="1" t="s">
+      <c r="M101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="1" t="s">
+      <c r="N101" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:14" ht="15">
       <c r="A102" s="3" t="s">
         <v>209</v>
       </c>
@@ -4750,11 +5106,14 @@
       <c r="J102" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="K102" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:14" ht="15">
       <c r="A103" s="3" t="s">
         <v>125</v>
       </c>
@@ -4782,8 +5141,11 @@
       <c r="J103" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="K103" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="15">
       <c r="B104" s="3">
         <v>3</v>
       </c>
@@ -4808,11 +5170,14 @@
       <c r="J104" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L104" s="3" t="s">
+      <c r="K104" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M104" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:14" ht="15">
       <c r="B105" s="3">
         <v>4</v>
       </c>
@@ -4837,8 +5202,11 @@
       <c r="J105" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" s="42" customFormat="1">
+      <c r="K105" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B106" s="3">
         <v>5</v>
       </c>
@@ -4863,9 +5231,12 @@
       <c r="J106" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" s="42" customFormat="1">
+      <c r="K106" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B107" s="3">
         <v>6</v>
       </c>
@@ -4887,9 +5258,12 @@
       <c r="J107" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L107" s="3"/>
-    </row>
-    <row r="108" spans="1:13" s="42" customFormat="1">
+      <c r="K107" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M107" s="3"/>
+    </row>
+    <row r="108" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B108" s="3">
         <v>7</v>
       </c>
@@ -4911,9 +5285,12 @@
       <c r="J108" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L108" s="3"/>
-    </row>
-    <row r="109" spans="1:13" s="42" customFormat="1">
+      <c r="K108" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M108" s="3"/>
+    </row>
+    <row r="109" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B109" s="3">
         <v>8</v>
       </c>
@@ -4938,9 +5315,12 @@
       <c r="J109" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L109" s="3"/>
-    </row>
-    <row r="110" spans="1:13" s="42" customFormat="1">
+      <c r="K109" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B110" s="3">
         <v>9</v>
       </c>
@@ -4962,9 +5342,12 @@
       <c r="J110" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L110" s="3"/>
-    </row>
-    <row r="111" spans="1:13" s="42" customFormat="1">
+      <c r="K110" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M110" s="3"/>
+    </row>
+    <row r="111" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B111" s="3">
         <v>10</v>
       </c>
@@ -4986,9 +5369,12 @@
       <c r="J111" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L111" s="3"/>
-    </row>
-    <row r="112" spans="1:13" s="26" customFormat="1" ht="24">
+      <c r="K111" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M111" s="3"/>
+    </row>
+    <row r="112" spans="1:14" s="26" customFormat="1" ht="30">
       <c r="A112" s="25" t="s">
         <v>161</v>
       </c>
@@ -5019,17 +5405,20 @@
       <c r="J112" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="K112" s="25" t="s">
+      <c r="K112" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L112" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="L112" s="25" t="s">
+      <c r="M112" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="M112" s="25" t="s">
+      <c r="N112" s="25" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="113" spans="1:12" s="39" customFormat="1">
+    <row r="113" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="A113" s="3" t="s">
         <v>245</v>
       </c>
@@ -5057,11 +5446,14 @@
       <c r="J113" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L113" s="3" t="s">
+      <c r="K113" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M113" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:12" s="39" customFormat="1">
+    <row r="114" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="A114" s="3" t="s">
         <v>224</v>
       </c>
@@ -5089,9 +5481,12 @@
       <c r="J114" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="L114" s="3"/>
-    </row>
-    <row r="115" spans="1:12" s="39" customFormat="1">
+      <c r="K114" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M114" s="3"/>
+    </row>
+    <row r="115" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="B115" s="3">
         <v>3</v>
       </c>
@@ -5116,14 +5511,17 @@
       <c r="J115" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="K115" s="39" t="s">
+      <c r="K115" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L115" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="L115" s="3" t="s">
+      <c r="M115" s="3" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="116" spans="1:12" s="39" customFormat="1">
+    <row r="116" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="B116" s="3">
         <v>4</v>
       </c>
@@ -5148,11 +5546,14 @@
       <c r="J116" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="L116" s="3" t="s">
+      <c r="K116" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M116" s="3" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:12" s="39" customFormat="1">
+    <row r="117" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="B117" s="3">
         <v>5</v>
       </c>
@@ -5177,9 +5578,12 @@
       <c r="J117" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="L117" s="3"/>
-    </row>
-    <row r="118" spans="1:12" s="40" customFormat="1">
+      <c r="K117" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M117" s="3"/>
+    </row>
+    <row r="118" spans="1:13" s="40" customFormat="1" ht="15">
       <c r="B118" s="3">
         <v>6</v>
       </c>
@@ -5204,9 +5608,12 @@
       <c r="J118" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L118" s="3"/>
-    </row>
-    <row r="119" spans="1:12" s="39" customFormat="1">
+      <c r="K118" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M118" s="3"/>
+    </row>
+    <row r="119" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="B119" s="3">
         <v>7</v>
       </c>
@@ -5231,9 +5638,12 @@
       <c r="J119" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="L119" s="3"/>
-    </row>
-    <row r="120" spans="1:12" s="39" customFormat="1">
+      <c r="K119" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M119" s="3"/>
+    </row>
+    <row r="120" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="B120" s="3">
         <v>8</v>
       </c>
@@ -5258,14 +5668,17 @@
       <c r="J120" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="K120" s="46" t="s">
+      <c r="K120" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L120" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="L120" s="3" t="s">
+      <c r="M120" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="121" spans="1:12" s="39" customFormat="1">
+    <row r="121" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="B121" s="3">
         <v>9</v>
       </c>
@@ -5290,8 +5703,11 @@
       <c r="J121" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" s="39" customFormat="1">
+      <c r="K121" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="B122" s="3">
         <v>10</v>
       </c>
@@ -5316,8 +5732,11 @@
       <c r="J122" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" s="39" customFormat="1">
+      <c r="K122" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="B123" s="3">
         <v>11</v>
       </c>
@@ -5342,11 +5761,14 @@
       <c r="J123" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L123" s="39" t="s">
+      <c r="K123" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M123" s="39" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="124" spans="1:12" s="39" customFormat="1">
+    <row r="124" spans="1:13" s="39" customFormat="1" ht="15">
       <c r="B124" s="3">
         <v>12</v>
       </c>
@@ -5371,11 +5793,14 @@
       <c r="J124" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="L124" s="39" t="s">
+      <c r="K124" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M124" s="39" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:12" s="42" customFormat="1">
+    <row r="125" spans="1:13" s="42" customFormat="1" ht="15">
       <c r="B125" s="3">
         <v>13</v>
       </c>
@@ -5400,9 +5825,12 @@
       <c r="J125" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L125" s="3"/>
-    </row>
-    <row r="126" spans="1:12" s="42" customFormat="1">
+      <c r="K125" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M125" s="3"/>
+    </row>
+    <row r="126" spans="1:13" s="42" customFormat="1" ht="15">
       <c r="B126" s="3">
         <v>14</v>
       </c>
@@ -5424,9 +5852,12 @@
       <c r="J126" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L126" s="3"/>
-    </row>
-    <row r="127" spans="1:12" s="42" customFormat="1">
+      <c r="K126" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M126" s="3"/>
+    </row>
+    <row r="127" spans="1:13" s="42" customFormat="1" ht="15">
       <c r="B127" s="3">
         <v>15</v>
       </c>
@@ -5448,9 +5879,12 @@
       <c r="J127" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L127" s="3"/>
-    </row>
-    <row r="128" spans="1:12" s="42" customFormat="1">
+      <c r="K127" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M127" s="3"/>
+    </row>
+    <row r="128" spans="1:13" s="42" customFormat="1" ht="15">
       <c r="B128" s="3">
         <v>16</v>
       </c>
@@ -5475,9 +5909,12 @@
       <c r="J128" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L128" s="3"/>
-    </row>
-    <row r="129" spans="1:13" s="42" customFormat="1">
+      <c r="K128" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B129" s="3">
         <v>17</v>
       </c>
@@ -5499,9 +5936,12 @@
       <c r="J129" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L129" s="3"/>
-    </row>
-    <row r="130" spans="1:13" s="42" customFormat="1">
+      <c r="K129" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M129" s="3"/>
+    </row>
+    <row r="130" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B130" s="3">
         <v>18</v>
       </c>
@@ -5523,9 +5963,12 @@
       <c r="J130" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L130" s="3"/>
-    </row>
-    <row r="131" spans="1:13" ht="24">
+      <c r="K130" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M130" s="3"/>
+    </row>
+    <row r="131" spans="1:14" ht="30">
       <c r="A131" s="1" t="s">
         <v>0</v>
       </c>
@@ -5556,17 +5999,20 @@
       <c r="J131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K131" s="1" t="s">
+      <c r="K131" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L131" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L131" s="1" t="s">
+      <c r="M131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="N131" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:14" ht="15">
       <c r="A132" s="3" t="s">
         <v>149</v>
       </c>
@@ -5595,12 +6041,15 @@
       <c r="J132" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="K132" s="11"/>
-      <c r="L132" s="3" t="s">
+      <c r="K132" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L132" s="11"/>
+      <c r="M132" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:14" ht="15">
       <c r="A133" s="3" t="s">
         <v>126</v>
       </c>
@@ -5629,10 +6078,13 @@
       <c r="J133" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="K133" s="11"/>
-      <c r="L133" s="3"/>
-    </row>
-    <row r="134" spans="1:13" s="30" customFormat="1">
+      <c r="K133" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L133" s="11"/>
+      <c r="M133" s="3"/>
+    </row>
+    <row r="134" spans="1:14" s="30" customFormat="1" ht="15">
       <c r="B134" s="3">
         <v>3</v>
       </c>
@@ -5657,9 +6109,12 @@
       <c r="J134" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L134" s="3"/>
-    </row>
-    <row r="135" spans="1:13" s="43" customFormat="1">
+      <c r="K134" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M134" s="3"/>
+    </row>
+    <row r="135" spans="1:14" s="43" customFormat="1" ht="15">
       <c r="B135" s="3">
         <v>3</v>
       </c>
@@ -5684,9 +6139,12 @@
       <c r="J135" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L135" s="3"/>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="K135" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M135" s="3"/>
+    </row>
+    <row r="136" spans="1:14" ht="15">
       <c r="B136" s="3">
         <v>4</v>
       </c>
@@ -5712,12 +6170,15 @@
       <c r="J136" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="K136" s="11" t="s">
+      <c r="K136" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L136" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="L136" s="3"/>
-    </row>
-    <row r="137" spans="1:13" s="11" customFormat="1">
+      <c r="M136" s="3"/>
+    </row>
+    <row r="137" spans="1:14" s="11" customFormat="1" ht="15">
       <c r="B137" s="3">
         <v>5</v>
       </c>
@@ -5742,9 +6203,12 @@
       <c r="J137" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L137" s="3"/>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="K137" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M137" s="3"/>
+    </row>
+    <row r="138" spans="1:14" ht="15">
       <c r="B138" s="3">
         <v>6</v>
       </c>
@@ -5770,10 +6234,13 @@
       <c r="J138" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="K138" s="11"/>
-      <c r="L138" s="3"/>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="K138" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L138" s="11"/>
+      <c r="M138" s="3"/>
+    </row>
+    <row r="139" spans="1:14" ht="15">
       <c r="B139" s="3">
         <v>7</v>
       </c>
@@ -5799,10 +6266,13 @@
       <c r="J139" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="K139" s="11"/>
-      <c r="L139" s="3"/>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="K139" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L139" s="11"/>
+      <c r="M139" s="3"/>
+    </row>
+    <row r="140" spans="1:14" ht="15">
       <c r="B140" s="3">
         <v>8</v>
       </c>
@@ -5828,10 +6298,13 @@
       <c r="J140" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="K140" s="11"/>
-      <c r="L140" s="3"/>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="K140" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L140" s="11"/>
+      <c r="M140" s="3"/>
+    </row>
+    <row r="141" spans="1:14" ht="15">
       <c r="B141" s="3">
         <v>9</v>
       </c>
@@ -5857,10 +6330,13 @@
       <c r="J141" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="K141" s="11"/>
-      <c r="L141" s="3"/>
-    </row>
-    <row r="142" spans="1:13" s="11" customFormat="1">
+      <c r="K141" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L141" s="11"/>
+      <c r="M141" s="3"/>
+    </row>
+    <row r="142" spans="1:14" s="11" customFormat="1" ht="15">
       <c r="B142" s="3">
         <v>10</v>
       </c>
@@ -5885,12 +6361,15 @@
       <c r="J142" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="K142" s="22" t="s">
+      <c r="K142" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L142" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="L142" s="3"/>
-    </row>
-    <row r="143" spans="1:13" s="11" customFormat="1">
+      <c r="M142" s="3"/>
+    </row>
+    <row r="143" spans="1:14" s="11" customFormat="1" ht="15">
       <c r="B143" s="3">
         <v>11</v>
       </c>
@@ -5915,12 +6394,15 @@
       <c r="J143" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L143" s="3"/>
-      <c r="M143" s="11" t="s">
+      <c r="K143" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M143" s="3"/>
+      <c r="N143" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:13" s="11" customFormat="1">
+    <row r="144" spans="1:14" s="11" customFormat="1" ht="15">
       <c r="B144" s="3">
         <v>12</v>
       </c>
@@ -5945,9 +6427,12 @@
       <c r="J144" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L144" s="3"/>
-    </row>
-    <row r="145" spans="1:13" s="42" customFormat="1">
+      <c r="K144" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M144" s="3"/>
+    </row>
+    <row r="145" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B145" s="3">
         <v>13</v>
       </c>
@@ -5972,9 +6457,12 @@
       <c r="J145" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L145" s="3"/>
-    </row>
-    <row r="146" spans="1:13" s="42" customFormat="1">
+      <c r="K145" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M145" s="3"/>
+    </row>
+    <row r="146" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B146" s="3">
         <v>14</v>
       </c>
@@ -5996,9 +6484,12 @@
       <c r="J146" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L146" s="3"/>
-    </row>
-    <row r="147" spans="1:13" s="42" customFormat="1">
+      <c r="K146" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M146" s="3"/>
+    </row>
+    <row r="147" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B147" s="3">
         <v>15</v>
       </c>
@@ -6020,9 +6511,12 @@
       <c r="J147" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L147" s="3"/>
-    </row>
-    <row r="148" spans="1:13" s="42" customFormat="1">
+      <c r="K147" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M147" s="3"/>
+    </row>
+    <row r="148" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B148" s="3">
         <v>16</v>
       </c>
@@ -6047,9 +6541,12 @@
       <c r="J148" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L148" s="3"/>
-    </row>
-    <row r="149" spans="1:13" s="42" customFormat="1">
+      <c r="K148" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M148" s="3"/>
+    </row>
+    <row r="149" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B149" s="3">
         <v>17</v>
       </c>
@@ -6071,9 +6568,12 @@
       <c r="J149" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L149" s="3"/>
-    </row>
-    <row r="150" spans="1:13" s="42" customFormat="1">
+      <c r="K149" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M149" s="3"/>
+    </row>
+    <row r="150" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B150" s="3">
         <v>18</v>
       </c>
@@ -6095,9 +6595,12 @@
       <c r="J150" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L150" s="3"/>
-    </row>
-    <row r="151" spans="1:13" ht="24">
+      <c r="K150" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M150" s="3"/>
+    </row>
+    <row r="151" spans="1:14" ht="30">
       <c r="A151" s="1" t="s">
         <v>0</v>
       </c>
@@ -6128,17 +6631,20 @@
       <c r="J151" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K151" s="1" t="s">
+      <c r="K151" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L151" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L151" s="1" t="s">
+      <c r="M151" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M151" s="1" t="s">
+      <c r="N151" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="152" spans="1:13">
+    <row r="152" spans="1:14" ht="15">
       <c r="A152" s="3" t="s">
         <v>146</v>
       </c>
@@ -6166,11 +6672,14 @@
       <c r="J152" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L152" s="3" t="s">
+      <c r="K152" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M152" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:13">
+    <row r="153" spans="1:14" ht="15">
       <c r="A153" s="3" t="s">
         <v>127</v>
       </c>
@@ -6198,9 +6707,12 @@
       <c r="J153" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L153" s="3"/>
-    </row>
-    <row r="154" spans="1:13">
+      <c r="K153" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M153" s="3"/>
+    </row>
+    <row r="154" spans="1:14" ht="15">
       <c r="B154" s="3">
         <v>3</v>
       </c>
@@ -6225,9 +6737,12 @@
       <c r="J154" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L154" s="3"/>
-    </row>
-    <row r="155" spans="1:13" s="42" customFormat="1">
+      <c r="K154" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M154" s="3"/>
+    </row>
+    <row r="155" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B155" s="3">
         <v>4</v>
       </c>
@@ -6252,9 +6767,12 @@
       <c r="J155" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L155" s="3"/>
-    </row>
-    <row r="156" spans="1:13" s="42" customFormat="1">
+      <c r="K155" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M155" s="3"/>
+    </row>
+    <row r="156" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B156" s="3">
         <v>5</v>
       </c>
@@ -6276,9 +6794,12 @@
       <c r="J156" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L156" s="3"/>
-    </row>
-    <row r="157" spans="1:13" s="42" customFormat="1">
+      <c r="K156" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M156" s="3"/>
+    </row>
+    <row r="157" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B157" s="3">
         <v>6</v>
       </c>
@@ -6300,9 +6821,12 @@
       <c r="J157" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L157" s="3"/>
-    </row>
-    <row r="158" spans="1:13" s="42" customFormat="1">
+      <c r="K157" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M157" s="3"/>
+    </row>
+    <row r="158" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B158" s="3">
         <v>7</v>
       </c>
@@ -6327,9 +6851,12 @@
       <c r="J158" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L158" s="3"/>
-    </row>
-    <row r="159" spans="1:13" s="42" customFormat="1">
+      <c r="K158" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M158" s="3"/>
+    </row>
+    <row r="159" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B159" s="3">
         <v>8</v>
       </c>
@@ -6351,9 +6878,12 @@
       <c r="J159" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L159" s="3"/>
-    </row>
-    <row r="160" spans="1:13" s="42" customFormat="1">
+      <c r="K159" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M159" s="3"/>
+    </row>
+    <row r="160" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B160" s="3">
         <v>9</v>
       </c>
@@ -6375,9 +6905,12 @@
       <c r="J160" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="L160" s="3"/>
-    </row>
-    <row r="161" spans="1:13" ht="24">
+      <c r="K160" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M160" s="3"/>
+    </row>
+    <row r="161" spans="1:14" ht="30">
       <c r="A161" s="1" t="s">
         <v>0</v>
       </c>
@@ -6408,17 +6941,20 @@
       <c r="J161" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K161" s="1" t="s">
+      <c r="K161" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L161" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L161" s="1" t="s">
+      <c r="M161" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M161" s="1" t="s">
+      <c r="N161" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="162" spans="1:13">
+    <row r="162" spans="1:14" ht="15">
       <c r="A162" s="3" t="s">
         <v>147</v>
       </c>
@@ -6446,11 +6982,14 @@
       <c r="J162" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="L162" s="3" t="s">
+      <c r="K162" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M162" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="163" spans="1:13">
+    <row r="163" spans="1:14" ht="15">
       <c r="A163" s="3" t="s">
         <v>128</v>
       </c>
@@ -6478,12 +7017,15 @@
       <c r="J163" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="K163" s="2" t="s">
+      <c r="K163" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L163" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="L163" s="3"/>
-    </row>
-    <row r="164" spans="1:13">
+      <c r="M163" s="3"/>
+    </row>
+    <row r="164" spans="1:14" ht="15">
       <c r="B164" s="3">
         <v>3</v>
       </c>
@@ -6508,9 +7050,12 @@
       <c r="J164" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L164" s="3"/>
-    </row>
-    <row r="165" spans="1:13">
+      <c r="K164" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M164" s="3"/>
+    </row>
+    <row r="165" spans="1:14" ht="15">
       <c r="B165" s="3">
         <v>4</v>
       </c>
@@ -6535,9 +7080,12 @@
       <c r="J165" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L165" s="3"/>
-    </row>
-    <row r="166" spans="1:13">
+      <c r="K165" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M165" s="3"/>
+    </row>
+    <row r="166" spans="1:14" ht="15">
       <c r="B166" s="3">
         <v>5</v>
       </c>
@@ -6562,9 +7110,12 @@
       <c r="J166" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="L166" s="3"/>
-    </row>
-    <row r="167" spans="1:13" s="23" customFormat="1">
+      <c r="K166" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M166" s="3"/>
+    </row>
+    <row r="167" spans="1:14" s="23" customFormat="1" ht="15">
       <c r="B167" s="3">
         <v>6</v>
       </c>
@@ -6589,9 +7140,12 @@
       <c r="J167" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="L167" s="3"/>
-    </row>
-    <row r="168" spans="1:13">
+      <c r="K167" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M167" s="3"/>
+    </row>
+    <row r="168" spans="1:14" ht="15">
       <c r="B168" s="3">
         <v>7</v>
       </c>
@@ -6616,9 +7170,12 @@
       <c r="J168" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="L168" s="3"/>
-    </row>
-    <row r="169" spans="1:13" s="23" customFormat="1">
+      <c r="K168" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M168" s="3"/>
+    </row>
+    <row r="169" spans="1:14" s="23" customFormat="1" ht="15">
       <c r="B169" s="3">
         <v>8</v>
       </c>
@@ -6643,9 +7200,12 @@
       <c r="J169" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L169" s="3"/>
-    </row>
-    <row r="170" spans="1:13">
+      <c r="K169" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M169" s="3"/>
+    </row>
+    <row r="170" spans="1:14" ht="15">
       <c r="B170" s="3">
         <v>9</v>
       </c>
@@ -6670,9 +7230,12 @@
       <c r="J170" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L170" s="3"/>
-    </row>
-    <row r="171" spans="1:13" s="47" customFormat="1">
+      <c r="K170" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M170" s="3"/>
+    </row>
+    <row r="171" spans="1:14" s="47" customFormat="1" ht="15">
       <c r="B171" s="3">
         <v>10</v>
       </c>
@@ -6694,9 +7257,12 @@
       <c r="J171" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="L171" s="3"/>
-    </row>
-    <row r="172" spans="1:13" s="47" customFormat="1">
+      <c r="K171" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M171" s="3"/>
+    </row>
+    <row r="172" spans="1:14" s="47" customFormat="1" ht="15">
       <c r="B172" s="3">
         <v>11</v>
       </c>
@@ -6721,9 +7287,12 @@
       <c r="J172" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="L172" s="3"/>
-    </row>
-    <row r="173" spans="1:13" s="48" customFormat="1">
+      <c r="K172" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M172" s="3"/>
+    </row>
+    <row r="173" spans="1:14" s="48" customFormat="1" ht="15">
       <c r="B173" s="3">
         <v>12</v>
       </c>
@@ -6745,9 +7314,12 @@
       <c r="J173" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="L173" s="3"/>
-    </row>
-    <row r="174" spans="1:13" s="47" customFormat="1">
+      <c r="K173" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M173" s="3"/>
+    </row>
+    <row r="174" spans="1:14" s="47" customFormat="1" ht="15">
       <c r="B174" s="3">
         <v>13</v>
       </c>
@@ -6772,9 +7344,12 @@
       <c r="J174" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="L174" s="3"/>
-    </row>
-    <row r="175" spans="1:13" s="42" customFormat="1">
+      <c r="K174" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M174" s="3"/>
+    </row>
+    <row r="175" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B175" s="3">
         <v>14</v>
       </c>
@@ -6799,9 +7374,12 @@
       <c r="J175" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L175" s="3"/>
-    </row>
-    <row r="176" spans="1:13" s="42" customFormat="1">
+      <c r="K175" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M175" s="3"/>
+    </row>
+    <row r="176" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B176" s="3">
         <v>15</v>
       </c>
@@ -6823,9 +7401,12 @@
       <c r="J176" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L176" s="3"/>
-    </row>
-    <row r="177" spans="1:13" s="42" customFormat="1">
+      <c r="K176" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M176" s="3"/>
+    </row>
+    <row r="177" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B177" s="3">
         <v>16</v>
       </c>
@@ -6847,9 +7428,12 @@
       <c r="J177" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L177" s="3"/>
-    </row>
-    <row r="178" spans="1:13" s="42" customFormat="1">
+      <c r="K177" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M177" s="3"/>
+    </row>
+    <row r="178" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B178" s="3">
         <v>17</v>
       </c>
@@ -6874,9 +7458,12 @@
       <c r="J178" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L178" s="3"/>
-    </row>
-    <row r="179" spans="1:13" s="42" customFormat="1">
+      <c r="K178" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M178" s="3"/>
+    </row>
+    <row r="179" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B179" s="3">
         <v>18</v>
       </c>
@@ -6898,9 +7485,12 @@
       <c r="J179" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L179" s="3"/>
-    </row>
-    <row r="180" spans="1:13" s="42" customFormat="1">
+      <c r="K179" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M179" s="3"/>
+    </row>
+    <row r="180" spans="1:14" s="42" customFormat="1" ht="15">
       <c r="B180" s="3">
         <v>19</v>
       </c>
@@ -6922,9 +7512,12 @@
       <c r="J180" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L180" s="3"/>
-    </row>
-    <row r="181" spans="1:13" ht="24">
+      <c r="K180" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M180" s="3"/>
+    </row>
+    <row r="181" spans="1:14" ht="30">
       <c r="A181" s="1" t="s">
         <v>0</v>
       </c>
@@ -6955,17 +7548,20 @@
       <c r="J181" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K181" s="1" t="s">
+      <c r="K181" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="M181" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="182" spans="1:13" s="50" customFormat="1">
+    <row r="182" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="A182" s="3" t="s">
         <v>289</v>
       </c>
@@ -6993,8 +7589,11 @@
       <c r="J182" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" s="50" customFormat="1">
+      <c r="K182" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="A183" s="3" t="s">
         <v>290</v>
       </c>
@@ -7022,8 +7621,11 @@
       <c r="J183" s="50" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" s="50" customFormat="1">
+      <c r="K183" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B184" s="3">
         <v>3</v>
       </c>
@@ -7048,8 +7650,11 @@
       <c r="J184" s="50" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" s="50" customFormat="1">
+      <c r="K184" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B185" s="3">
         <v>4</v>
       </c>
@@ -7074,8 +7679,11 @@
       <c r="J185" s="50" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" s="50" customFormat="1">
+      <c r="K185" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B186" s="3">
         <v>5</v>
       </c>
@@ -7100,9 +7708,12 @@
       <c r="J186" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L186" s="3"/>
-    </row>
-    <row r="187" spans="1:13" s="50" customFormat="1">
+      <c r="K186" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M186" s="3"/>
+    </row>
+    <row r="187" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B187" s="3">
         <v>6</v>
       </c>
@@ -7124,9 +7735,12 @@
       <c r="J187" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L187" s="3"/>
-    </row>
-    <row r="188" spans="1:13" s="50" customFormat="1">
+      <c r="K187" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M187" s="3"/>
+    </row>
+    <row r="188" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B188" s="3">
         <v>7</v>
       </c>
@@ -7148,9 +7762,12 @@
       <c r="J188" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L188" s="3"/>
-    </row>
-    <row r="189" spans="1:13" s="50" customFormat="1">
+      <c r="K188" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M188" s="3"/>
+    </row>
+    <row r="189" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B189" s="3">
         <v>8</v>
       </c>
@@ -7175,9 +7792,12 @@
       <c r="J189" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L189" s="3"/>
-    </row>
-    <row r="190" spans="1:13" s="50" customFormat="1">
+      <c r="K189" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M189" s="3"/>
+    </row>
+    <row r="190" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B190" s="3">
         <v>9</v>
       </c>
@@ -7199,9 +7819,12 @@
       <c r="J190" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L190" s="3"/>
-    </row>
-    <row r="191" spans="1:13" s="50" customFormat="1">
+      <c r="K190" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M190" s="3"/>
+    </row>
+    <row r="191" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B191" s="3">
         <v>10</v>
       </c>
@@ -7223,9 +7846,12 @@
       <c r="J191" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L191" s="3"/>
-    </row>
-    <row r="192" spans="1:13" s="50" customFormat="1" ht="24">
+      <c r="K191" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M191" s="3"/>
+    </row>
+    <row r="192" spans="1:14" s="50" customFormat="1" ht="30">
       <c r="A192" s="1" t="s">
         <v>0</v>
       </c>
@@ -7256,17 +7882,20 @@
       <c r="J192" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K192" s="1" t="s">
+      <c r="K192" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="M192" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="193" spans="1:13" s="50" customFormat="1">
+    <row r="193" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="A193" s="3" t="s">
         <v>296</v>
       </c>
@@ -7294,11 +7923,14 @@
       <c r="J193" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L193" s="3" t="s">
+      <c r="K193" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M193" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="194" spans="1:13" s="50" customFormat="1">
+    <row r="194" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="A194" s="3" t="s">
         <v>293</v>
       </c>
@@ -7326,9 +7958,12 @@
       <c r="J194" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L194" s="3"/>
-    </row>
-    <row r="195" spans="1:13" s="50" customFormat="1">
+      <c r="K194" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M194" s="3"/>
+    </row>
+    <row r="195" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B195" s="3">
         <v>3</v>
       </c>
@@ -7353,9 +7988,12 @@
       <c r="J195" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L195" s="3"/>
-    </row>
-    <row r="196" spans="1:13" s="50" customFormat="1">
+      <c r="K195" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M195" s="3"/>
+    </row>
+    <row r="196" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B196" s="3">
         <v>4</v>
       </c>
@@ -7380,9 +8018,12 @@
       <c r="J196" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L196" s="3"/>
-    </row>
-    <row r="197" spans="1:13" s="50" customFormat="1">
+      <c r="K196" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M196" s="3"/>
+    </row>
+    <row r="197" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B197" s="3">
         <v>5</v>
       </c>
@@ -7404,9 +8045,12 @@
       <c r="J197" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L197" s="3"/>
-    </row>
-    <row r="198" spans="1:13" s="50" customFormat="1">
+      <c r="K197" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M197" s="3"/>
+    </row>
+    <row r="198" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B198" s="3">
         <v>6</v>
       </c>
@@ -7428,9 +8072,12 @@
       <c r="J198" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L198" s="3"/>
-    </row>
-    <row r="199" spans="1:13" s="50" customFormat="1">
+      <c r="K198" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M198" s="3"/>
+    </row>
+    <row r="199" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B199" s="3">
         <v>7</v>
       </c>
@@ -7455,9 +8102,12 @@
       <c r="J199" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L199" s="3"/>
-    </row>
-    <row r="200" spans="1:13" s="50" customFormat="1">
+      <c r="K199" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M199" s="3"/>
+    </row>
+    <row r="200" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B200" s="3">
         <v>8</v>
       </c>
@@ -7479,9 +8129,12 @@
       <c r="J200" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L200" s="3"/>
-    </row>
-    <row r="201" spans="1:13" s="50" customFormat="1">
+      <c r="K200" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M200" s="3"/>
+    </row>
+    <row r="201" spans="1:14" s="50" customFormat="1" ht="15">
       <c r="B201" s="3">
         <v>9</v>
       </c>
@@ -7503,9 +8156,12 @@
       <c r="J201" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="L201" s="3"/>
-    </row>
-    <row r="202" spans="1:13" s="50" customFormat="1" ht="24">
+      <c r="K201" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M201" s="3"/>
+    </row>
+    <row r="202" spans="1:14" s="50" customFormat="1" ht="30">
       <c r="A202" s="1" t="s">
         <v>0</v>
       </c>
@@ -7536,17 +8192,20 @@
       <c r="J202" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K202" s="1" t="s">
+      <c r="K202" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="M202" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="203" spans="1:13">
+    <row r="203" spans="1:14" ht="15">
       <c r="A203" s="3" t="s">
         <v>316</v>
       </c>
@@ -7574,8 +8233,11 @@
       <c r="J203" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="204" spans="1:13">
+      <c r="K203" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15">
       <c r="A204" s="3" t="s">
         <v>317</v>
       </c>
@@ -7603,8 +8265,11 @@
       <c r="J204" s="51" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="205" spans="1:13">
+      <c r="K204" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15">
       <c r="B205" s="2">
         <v>3</v>
       </c>
@@ -7629,8 +8294,11 @@
       <c r="J205" s="51" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="206" spans="1:13">
+      <c r="K205" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15">
       <c r="B206" s="51">
         <v>4</v>
       </c>
@@ -7655,8 +8323,11 @@
       <c r="J206" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="207" spans="1:13">
+      <c r="K206" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15">
       <c r="B207" s="51">
         <v>5</v>
       </c>
@@ -7681,8 +8352,11 @@
       <c r="J207" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="208" spans="1:13">
+      <c r="K207" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15">
       <c r="B208" s="51">
         <v>6</v>
       </c>
@@ -7707,14 +8381,17 @@
       <c r="J208" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="K208" s="51" t="s">
+      <c r="K208" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L208" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="L208" s="57" t="s">
+      <c r="M208" s="57" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="209" spans="1:13">
+    <row r="209" spans="1:14" ht="15">
       <c r="B209" s="51">
         <v>7</v>
       </c>
@@ -7739,14 +8416,17 @@
       <c r="J209" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="K209" s="53" t="s">
+      <c r="K209" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L209" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="L209" s="51" t="s">
+      <c r="M209" s="51" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="210" spans="1:13">
+    <row r="210" spans="1:14" ht="15">
       <c r="B210" s="51">
         <v>8</v>
       </c>
@@ -7771,14 +8451,17 @@
       <c r="J210" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="K210" s="53" t="s">
+      <c r="K210" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L210" s="53" t="s">
         <v>318</v>
       </c>
-      <c r="L210" s="51" t="s">
+      <c r="M210" s="51" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="211" spans="1:13">
+    <row r="211" spans="1:14" ht="15">
       <c r="B211" s="51">
         <v>9</v>
       </c>
@@ -7803,8 +8486,11 @@
       <c r="J211" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="212" spans="1:13">
+      <c r="K211" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="15">
       <c r="B212" s="51">
         <v>10</v>
       </c>
@@ -7830,8 +8516,11 @@
       <c r="J212" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" s="51" customFormat="1">
+      <c r="K212" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" s="51" customFormat="1" ht="15">
       <c r="B213" s="51">
         <v>11</v>
       </c>
@@ -7853,9 +8542,12 @@
       <c r="J213" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="L213" s="3"/>
-    </row>
-    <row r="214" spans="1:13">
+      <c r="K213" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M213" s="3"/>
+    </row>
+    <row r="214" spans="1:14" ht="15">
       <c r="B214" s="51">
         <v>12</v>
       </c>
@@ -7879,8 +8571,11 @@
       <c r="J214" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="215" spans="1:13">
+      <c r="K214" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="15">
       <c r="B215" s="51">
         <v>13</v>
       </c>
@@ -7906,8 +8601,11 @@
       <c r="J215" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" s="51" customFormat="1">
+      <c r="K215" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" s="51" customFormat="1" ht="15">
       <c r="B216" s="51">
         <v>14</v>
       </c>
@@ -7929,9 +8627,12 @@
       <c r="J216" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="L216" s="3"/>
-    </row>
-    <row r="217" spans="1:13">
+      <c r="K216" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M216" s="3"/>
+    </row>
+    <row r="217" spans="1:14" ht="15">
       <c r="B217" s="2">
         <v>15</v>
       </c>
@@ -7955,8 +8656,11 @@
       <c r="J217" s="51" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" s="54" customFormat="1" ht="24">
+      <c r="K217" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" s="54" customFormat="1" ht="30">
       <c r="A218" s="1" t="s">
         <v>0</v>
       </c>
@@ -7987,17 +8691,20 @@
       <c r="J218" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K218" s="1" t="s">
+      <c r="K218" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="M218" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="219" spans="1:13" s="54" customFormat="1">
+    <row r="219" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="A219" s="3" t="s">
         <v>319</v>
       </c>
@@ -8025,8 +8732,11 @@
       <c r="J219" s="54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" s="54" customFormat="1">
+      <c r="K219" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="A220" s="3" t="s">
         <v>320</v>
       </c>
@@ -8054,8 +8764,11 @@
       <c r="J220" s="54" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" s="54" customFormat="1">
+      <c r="K220" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B221" s="54">
         <v>3</v>
       </c>
@@ -8080,8 +8793,11 @@
       <c r="J221" s="54" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" s="54" customFormat="1">
+      <c r="K221" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B222" s="54">
         <v>4</v>
       </c>
@@ -8106,8 +8822,11 @@
       <c r="J222" s="54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" s="54" customFormat="1">
+      <c r="K222" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B223" s="54">
         <v>5</v>
       </c>
@@ -8132,8 +8851,11 @@
       <c r="J223" s="54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" s="54" customFormat="1">
+      <c r="K223" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B224" s="54">
         <v>6</v>
       </c>
@@ -8158,14 +8880,17 @@
       <c r="J224" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="K224" s="54" t="s">
+      <c r="K224" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L224" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="L224" s="54" t="s">
+      <c r="M224" s="54" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="225" spans="1:13" s="54" customFormat="1">
+    <row r="225" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B225" s="54">
         <v>7</v>
       </c>
@@ -8187,8 +8912,11 @@
       <c r="J225" s="57" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" s="55" customFormat="1">
+      <c r="K225" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" s="55" customFormat="1" ht="15">
       <c r="B226" s="55">
         <v>12</v>
       </c>
@@ -8210,8 +8938,11 @@
       <c r="J226" s="55" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" s="55" customFormat="1">
+      <c r="K226" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" s="55" customFormat="1" ht="15">
       <c r="B227" s="55">
         <v>12</v>
       </c>
@@ -8233,8 +8964,11 @@
       <c r="J227" s="55" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" s="54" customFormat="1">
+      <c r="K227" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B228" s="54">
         <v>10</v>
       </c>
@@ -8259,8 +8993,11 @@
       <c r="J228" s="54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" s="54" customFormat="1">
+      <c r="K228" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B229" s="54">
         <v>11</v>
       </c>
@@ -8282,9 +9019,12 @@
       <c r="J229" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="L229" s="3"/>
-    </row>
-    <row r="230" spans="1:13" s="54" customFormat="1">
+      <c r="K229" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M229" s="3"/>
+    </row>
+    <row r="230" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B230" s="54">
         <v>12</v>
       </c>
@@ -8306,8 +9046,11 @@
       <c r="J230" s="54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" s="54" customFormat="1">
+      <c r="K230" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B231" s="54">
         <v>13</v>
       </c>
@@ -8332,8 +9075,11 @@
       <c r="J231" s="54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" s="54" customFormat="1">
+      <c r="K231" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B232" s="54">
         <v>14</v>
       </c>
@@ -8355,9 +9101,12 @@
       <c r="J232" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="L232" s="3"/>
-    </row>
-    <row r="233" spans="1:13" s="54" customFormat="1">
+      <c r="K232" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M232" s="3"/>
+    </row>
+    <row r="233" spans="1:14" s="54" customFormat="1" ht="15">
       <c r="B233" s="54">
         <v>15</v>
       </c>
@@ -8379,8 +9128,11 @@
       <c r="J233" s="54" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" s="51" customFormat="1" ht="24">
+      <c r="K233" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" s="51" customFormat="1" ht="30">
       <c r="A234" s="1" t="s">
         <v>0</v>
       </c>
@@ -8411,17 +9163,20 @@
       <c r="J234" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K234" s="1" t="s">
+      <c r="K234" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L234" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L234" s="1" t="s">
+      <c r="M234" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M234" s="1" t="s">
+      <c r="N234" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="41" customFormat="1">
+    <row r="235" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="A235" s="3" t="s">
         <v>230</v>
       </c>
@@ -8449,11 +9204,14 @@
       <c r="J235" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="L235" s="3" t="s">
+      <c r="K235" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M235" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="41" customFormat="1">
+    <row r="236" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="A236" s="3" t="s">
         <v>229</v>
       </c>
@@ -8481,9 +9239,12 @@
       <c r="J236" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L236" s="3"/>
-    </row>
-    <row r="237" spans="1:13" s="41" customFormat="1">
+      <c r="K236" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M236" s="3"/>
+    </row>
+    <row r="237" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B237" s="3">
         <v>3</v>
       </c>
@@ -8508,9 +9269,12 @@
       <c r="J237" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L237" s="3"/>
-    </row>
-    <row r="238" spans="1:13" s="41" customFormat="1">
+      <c r="K237" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M237" s="3"/>
+    </row>
+    <row r="238" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B238" s="3">
         <v>4</v>
       </c>
@@ -8535,9 +9299,12 @@
       <c r="J238" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L238" s="3"/>
-    </row>
-    <row r="239" spans="1:13" s="44" customFormat="1">
+      <c r="K238" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M238" s="3"/>
+    </row>
+    <row r="239" spans="1:14" s="44" customFormat="1" ht="15">
       <c r="B239" s="3">
         <v>3</v>
       </c>
@@ -8562,9 +9329,12 @@
       <c r="J239" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L239" s="3"/>
-    </row>
-    <row r="240" spans="1:13" s="41" customFormat="1">
+      <c r="K239" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M239" s="3"/>
+    </row>
+    <row r="240" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B240" s="3">
         <v>5</v>
       </c>
@@ -8589,12 +9359,15 @@
       <c r="J240" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="K240" s="41" t="s">
+      <c r="K240" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L240" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="L240" s="3"/>
-    </row>
-    <row r="241" spans="1:13" s="41" customFormat="1">
+      <c r="M240" s="3"/>
+    </row>
+    <row r="241" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B241" s="3">
         <v>6</v>
       </c>
@@ -8619,9 +9392,12 @@
       <c r="J241" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L241" s="3"/>
-    </row>
-    <row r="242" spans="1:13" s="41" customFormat="1">
+      <c r="K241" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M241" s="3"/>
+    </row>
+    <row r="242" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B242" s="3">
         <v>7</v>
       </c>
@@ -8646,9 +9422,12 @@
       <c r="J242" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L242" s="3"/>
-    </row>
-    <row r="243" spans="1:13" s="41" customFormat="1">
+      <c r="K242" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M242" s="3"/>
+    </row>
+    <row r="243" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B243" s="3">
         <v>8</v>
       </c>
@@ -8673,9 +9452,12 @@
       <c r="J243" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L243" s="3"/>
-    </row>
-    <row r="244" spans="1:13" s="41" customFormat="1">
+      <c r="K243" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M243" s="3"/>
+    </row>
+    <row r="244" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B244" s="3">
         <v>9</v>
       </c>
@@ -8697,9 +9479,12 @@
       <c r="J244" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L244" s="3"/>
-    </row>
-    <row r="245" spans="1:13" s="41" customFormat="1">
+      <c r="K244" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M244" s="3"/>
+    </row>
+    <row r="245" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B245" s="3">
         <v>10</v>
       </c>
@@ -8721,9 +9506,12 @@
       <c r="J245" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L245" s="3"/>
-    </row>
-    <row r="246" spans="1:13" s="41" customFormat="1">
+      <c r="K245" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M245" s="3"/>
+    </row>
+    <row r="246" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B246" s="3">
         <v>11</v>
       </c>
@@ -8748,9 +9536,12 @@
       <c r="J246" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L246" s="3"/>
-    </row>
-    <row r="247" spans="1:13" s="41" customFormat="1">
+      <c r="K246" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M246" s="3"/>
+    </row>
+    <row r="247" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B247" s="3">
         <v>12</v>
       </c>
@@ -8772,9 +9563,12 @@
       <c r="J247" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L247" s="3"/>
-    </row>
-    <row r="248" spans="1:13" s="41" customFormat="1">
+      <c r="K247" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M247" s="3"/>
+    </row>
+    <row r="248" spans="1:14" s="41" customFormat="1" ht="15">
       <c r="B248" s="3">
         <v>13</v>
       </c>
@@ -8796,9 +9590,12 @@
       <c r="J248" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="L248" s="3"/>
-    </row>
-    <row r="249" spans="1:13" s="60" customFormat="1" ht="24">
+      <c r="K248" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="M248" s="3"/>
+    </row>
+    <row r="249" spans="1:14" s="60" customFormat="1" ht="30">
       <c r="A249" s="1" t="s">
         <v>0</v>
       </c>
@@ -8829,31 +9626,34 @@
       <c r="J249" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K249" s="1" t="s">
+      <c r="K249" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="L249" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="M249" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M249" s="1" t="s">
+      <c r="N249" s="1" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="M25:M31"/>
-    <mergeCell ref="M14:M17"/>
-    <mergeCell ref="M2:M6"/>
+    <mergeCell ref="N25:N31"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N2:N6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H193:H201 H203:H217 H1:H60 H219:H233 H132:H150 H75:H89 H152:H160 H182:H191 H62:H73 H91:H100 H102:H130 H162:H180 H235:H248 H250:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H193:H201 H203:H217 H1:H60 H219:H233 H132:H150 H75:H89 H152:H160 H182:H191 H62:H73 H91:H100 H102:H130 H162:H180 H235:H248 H250:H1048576" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I193:J201 I219:J233 I1:J60 I203:J217 I62:J73 I75:J89 I102:J130 I132:J150 I152:J160 I182:J191 I91:J100 I162:J180 I235:J248 I250:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I203:K217 I182:K191 I193:K201 K40:K60 I62:K73 K25:K38 K113:K130 I132:K150 I162:K180 I75:K89 I152:K160 I219:K233 I250:K1048576 I1:J60 K102:K111 K2:K12 K14:K23 I102:J130 I91:K100 I235:K248" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E193:E201 E219:E233 E62:E73 E203:E217 E1:E60 E75:E89 E102:E130 E152:E160 E182:E191 E132:E150 E91:E100 E162:E180 E235:E248 E250:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E193:E201 E219:E233 E62:E73 E203:E217 E1:E60 E75:E89 E102:E130 E152:E160 E182:E191 E132:E150 E91:E100 E162:E180 E235:E248 E250:E1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>"字符型,浮点型,日期型,时间型,整数型,大文本,大文件"</formula1>
     </dataValidation>
   </dataValidations>
